--- a/my_session_history.xlsx
+++ b/my_session_history.xlsx
@@ -50,22 +50,22 @@
     <t xml:space="preserve">DetailFalsch</t>
   </si>
   <si>
-    <t xml:space="preserve">25.02.2025_14:42:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.02.2025_14:43:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English classes Monika</t>
+    <t xml:space="preserve">25.02.2025_23:01:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_23:09:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Civilization_Season 1_Episode 1</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -452,13 +452,13 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>

--- a/my_session_history.xlsx
+++ b/my_session_history.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">SessionID</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00:42:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00:43:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40%</t>
   </si>
 </sst>
 </file>
@@ -476,6 +491,44 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/my_session_history.xlsx
+++ b/my_session_history.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">SessionID</t>
   </si>
@@ -84,6 +84,57 @@
   </si>
   <si>
     <t xml:space="preserve">40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14:50:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14:51:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14:57:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14:57:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14:58:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_14:58:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_15:04:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2025_15:05:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:34</t>
   </si>
 </sst>
 </file>
@@ -529,6 +580,158 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
